--- a/president_data.xlsx
+++ b/president_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="283">
   <si>
     <t>color</t>
   </si>
@@ -59,33 +59,21 @@
     <t>took_office</t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/7/73/Subhi_barkat.jpg/80px-Subhi_barkat.jpg</t>
-  </si>
-  <si>
     <t>(1889–1939)</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Independent </t>
-  </si>
-  <si>
     <t xml:space="preserve">3 years, 173 days  </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/1d/No_image.svg/80px-No_image.svg.png</t>
-  </si>
-  <si>
     <t>(1853–1932)</t>
   </si>
   <si>
     <t xml:space="preserve">78 days </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/3/35/Sy_nami.png/80px-Sy_nami.png</t>
-  </si>
-  <si>
     <t>(1879–1960)</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t xml:space="preserve">1 year, 291 days  </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/7/73/Taj_al-Din_al-Hasani.jpg/80px-Taj_al-Din_al-Hasani.jpg</t>
-  </si>
-  <si>
     <t>(1885–1943)</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t xml:space="preserve">205 days </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/3/34/Muhammad_Ali_al-Abid.jpg/80px-Muhammad_Ali_al-Abid.jpg</t>
-  </si>
-  <si>
     <t>(1867–1939)</t>
   </si>
   <si>
@@ -128,24 +110,15 @@
     <t>#808080</t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/0/0d/Hashim_Al_Atassi.jpg/80px-Hashim_Al_Atassi.jpg</t>
-  </si>
-  <si>
     <t>(1875–1960)</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">National Bloc </t>
-  </si>
-  <si>
     <t xml:space="preserve">2 years, 198 days  </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Bahij_al-Khatib.jpg/80px-Bahij_al-Khatib.jpg</t>
-  </si>
-  <si>
     <t>(1895–1981)</t>
   </si>
   <si>
@@ -153,9 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 year, 268 days  </t>
-  </si>
-  <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/4/49/Khalid_al-Azm.jpg/80px-Khalid_al-Azm.jpg</t>
   </si>
   <si>
     <t>(1903–1965)</t>
@@ -174,18 +144,12 @@
     <t xml:space="preserve">1 year, 122 days  </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/8/8c/Jamil_al-Ulshi.jpg/80px-Jamil_al-Ulshi.jpg</t>
-  </si>
-  <si>
     <t>(1883–1951)</t>
   </si>
   <si>
     <t xml:space="preserve">67 days </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/7/7c/Ata_al-Ayyubi.jpg/80px-Ata_al-Ayyubi.jpg</t>
-  </si>
-  <si>
     <t>(1877–1951)</t>
   </si>
   <si>
@@ -193,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">145 days </t>
-  </si>
-  <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/2/21/Portrait_of_Shukri_al-Quwatli_in_1943.jpeg/80px-Portrait_of_Shukri_al-Quwatli_in_1943.jpeg</t>
   </si>
   <si>
     <t>(1891–1967)</t>
@@ -211,9 +172,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">National Bloc / National Party </t>
-  </si>
-  <si>
     <t xml:space="preserve">3 years, 157 days  </t>
   </si>
   <si>
@@ -221,9 +179,6 @@
   </si>
   <si>
     <t>1949</t>
-  </si>
-  <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/7/74/Husni_al-Zaiim.jpg/80px-Husni_al-Zaiim.jpg</t>
   </si>
   <si>
     <t>(1897–1949)</t>
@@ -236,46 +191,28 @@
     <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">Syrian Social Nationalist Party </t>
-  </si>
-  <si>
     <t xml:space="preserve">137 days </t>
   </si>
   <si>
     <t>#C3B091</t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/f/f6/Sami_al-Hinnawi.jpg/80px-Sami_al-Hinnawi.jpg</t>
-  </si>
-  <si>
     <t>(1898–1950)</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve">Military </t>
-  </si>
-  <si>
     <t xml:space="preserve">1 day </t>
   </si>
   <si>
     <t>#00529F</t>
   </si>
   <si>
-    <t xml:space="preserve">National Party </t>
-  </si>
-  <si>
     <t xml:space="preserve">2 years, 108 days  </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/3/35/Adib_al-Shishakli.jpg/80px-Adib_al-Shishakli.jpg</t>
-  </si>
-  <si>
     <t>(1909–1964)</t>
-  </si>
-  <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/2/2d/Fawzi_Selu.jpg/80px-Fawzi_Selu.jpg</t>
   </si>
   <si>
     <t>(1905–1972)</t>
@@ -300,15 +237,9 @@
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve">Arab Liberation Movement </t>
-  </si>
-  <si>
     <t xml:space="preserve">229 days </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Maamoun_Kuzbari.jpg/80px-Maamoun_Kuzbari.jpg</t>
-  </si>
-  <si>
     <t>(1914–1998)</t>
   </si>
   <si>
@@ -324,16 +255,10 @@
     <t>1958</t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/e/e4/Nasser_portrait2.jpg/80px-Nasser_portrait2.jpg</t>
-  </si>
-  <si>
     <t>(1918–1970)</t>
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Union (United Arab Republic) </t>
   </si>
   <si>
     <t xml:space="preserve">3 years, 220 days  </t>
@@ -346,9 +271,6 @@
     <t xml:space="preserve">52 days </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/6/68/Sy_izzat_al-nuss.png/80px-Sy_izzat_al-nuss.png</t>
-  </si>
-  <si>
     <t>(1912–1976)</t>
   </si>
   <si>
@@ -356,9 +278,6 @@
   </si>
   <si>
     <t>#FF9900</t>
-  </si>
-  <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/0/0f/Nazim_al-Kudsi.jpg/80px-Nazim_al-Kudsi.jpg</t>
   </si>
   <si>
     <t>(1906–1998)</t>
@@ -371,13 +290,7 @@
     <t>14</t>
   </si>
   <si>
-    <t xml:space="preserve">People's Party </t>
-  </si>
-  <si>
     <t xml:space="preserve">1 year, 82 days  </t>
-  </si>
-  <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/f/f1/Luai_al-Atassi.jpg/80px-Luai_al-Atassi.jpg</t>
   </si>
   <si>
     <t>(1926–2003)</t>
@@ -396,9 +309,6 @@
     <t>#017B48</t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/4/47/Amin_al-Hafez_1965.jpg/80px-Amin_al-Hafez_1965.jpg</t>
-  </si>
-  <si>
     <t>(1921–2009)</t>
   </si>
   <si>
@@ -409,13 +319,7 @@
     <t>16</t>
   </si>
   <si>
-    <t xml:space="preserve">Ba'ath Party(Syria Region) </t>
-  </si>
-  <si>
     <t xml:space="preserve">2 years, 209 days  </t>
-  </si>
-  <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/13/Nureddin_Atassi.jpg/80px-Nureddin_Atassi.jpg</t>
   </si>
   <si>
     <t>(1929–1992)</t>
@@ -428,15 +332,9 @@
     <t>17</t>
   </si>
   <si>
-    <t xml:space="preserve">Syrian Ba'ath Party(Syria Region) </t>
-  </si>
-  <si>
     <t xml:space="preserve">4 years, 267 days  </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/d/dc/Ahmad_al-Khatib%2C_the_interim_head_of_state_who_ruled_Syria_for_four_months_from_November_1970_to_March_1971.png/80px-Ahmad_al-Khatib%2C_the_interim_head_of_state_who_ruled_Syria_for_four_months_from_November_1970_to_March_1971.png</t>
-  </si>
-  <si>
     <t>(1933–1982)</t>
   </si>
   <si>
@@ -444,9 +342,6 @@
   </si>
   <si>
     <t>19711978198519911999</t>
-  </si>
-  <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/8/89/Hafez_al-Assad_official_portrait.jpg/80px-Hafez_al-Assad_official_portrait.jpg</t>
   </si>
   <si>
     <t>(1930–2000)</t>
@@ -462,9 +357,6 @@
     <t xml:space="preserve">29 years, 202 days  </t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/15/Abdul_Halim_Khaddam_in_1974.jpg/80px-Abdul_Halim_Khaddam_in_1974.jpg</t>
-  </si>
-  <si>
     <t>(1932–)</t>
   </si>
   <si>
@@ -474,9 +366,6 @@
     <t>200020072014</t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/commons/thumb/7/7d/Bashar_al-Assad_%28cropped%29.jpg/80px-Bashar_al-Assad_%28cropped%29.jpg</t>
-  </si>
-  <si>
     <t>(1965–)</t>
   </si>
   <si>
@@ -496,9 +385,6 @@
   </si>
   <si>
     <t>Religion</t>
-  </si>
-  <si>
-    <t>How_left</t>
   </si>
   <si>
     <t>Flag_of_Syria_French_Mandate.png</t>
@@ -1472,6 +1358,186 @@
   </si>
   <si>
     <t>Bashar al-Assad</t>
+  </si>
+  <si>
+    <t>cause_of_departure</t>
+  </si>
+  <si>
+    <t>ascension_to_power</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>State of Syria, part of the French Mandate</t>
+  </si>
+  <si>
+    <t>Syrian Republic, part of the French Mandate</t>
+  </si>
+  <si>
+    <t>Syrian Republic</t>
+  </si>
+  <si>
+    <t>United Arab Republic</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Governate</t>
+  </si>
+  <si>
+    <t>Bashar_al-Assad.jpg</t>
+  </si>
+  <si>
+    <t>Maamoun_Kuzbari.jpg</t>
+  </si>
+  <si>
+    <t>Sy_izzat_al-nuss.png</t>
+  </si>
+  <si>
+    <t>Nazim_al-Kudsi.jpg</t>
+  </si>
+  <si>
+    <t>Luai_al-Atassi.jpg</t>
+  </si>
+  <si>
+    <t>Amin_al-Hafez.jpg</t>
+  </si>
+  <si>
+    <t>Nureddin_Atassi.jpg</t>
+  </si>
+  <si>
+    <t>Ahmad_al-Khatib.png</t>
+  </si>
+  <si>
+    <t>Hafez_al-Assad.jpg</t>
+  </si>
+  <si>
+    <t>Abdul_Halim_Khaddam.jpg</t>
+  </si>
+  <si>
+    <t>Nasser.jpg</t>
+  </si>
+  <si>
+    <t>Shukri_al-Quwatli.jpg</t>
+  </si>
+  <si>
+    <t>Hashim_Al_Atassi.jpg</t>
+  </si>
+  <si>
+    <t>Adib_al-Shishakli.jpg</t>
+  </si>
+  <si>
+    <t>Fawzi_Selu.jpg</t>
+  </si>
+  <si>
+    <t>Sami_al-Hinnawi.jpg</t>
+  </si>
+  <si>
+    <t>Husni_al-Zaiim.jpg</t>
+  </si>
+  <si>
+    <t>Ata_al-Ayyubi.jpg</t>
+  </si>
+  <si>
+    <t>Jamil_al-Ulshi.jpg</t>
+  </si>
+  <si>
+    <t>Taj_al-Din_al-Hasani.jpg</t>
+  </si>
+  <si>
+    <t>Khalid_al-Azm.jpg</t>
+  </si>
+  <si>
+    <t>Bahij_al-Khatib.jpg</t>
+  </si>
+  <si>
+    <t>Muhammad_Ali_al-Abid.jpg</t>
+  </si>
+  <si>
+    <t>Subhi_barkat.jpg</t>
+  </si>
+  <si>
+    <t>Sy_nami.png</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>Homs</t>
+  </si>
+  <si>
+    <t>Aleppo</t>
+  </si>
+  <si>
+    <t>Hama</t>
+  </si>
+  <si>
+    <t>As-Suwayda</t>
+  </si>
+  <si>
+    <t>Latakia</t>
+  </si>
+  <si>
+    <t>Tartus</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>National Bloc</t>
+  </si>
+  <si>
+    <t>Independen</t>
+  </si>
+  <si>
+    <t>National Bloc / National Party</t>
+  </si>
+  <si>
+    <t>Syrian Social Nationalist Party</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>National Party</t>
+  </si>
+  <si>
+    <t>Arab Liberation Movement</t>
+  </si>
+  <si>
+    <t>National Union (United Arab Republic)</t>
+  </si>
+  <si>
+    <t>People's Party</t>
+  </si>
+  <si>
+    <t>Ba'ath Party(Syria Region)</t>
+  </si>
+  <si>
+    <t>Syrian Ba'ath Party(Syria Region)</t>
+  </si>
+  <si>
+    <t>Flag_of_Syria_1963-1972.png,Flag_of_Syria_1972-1980.png,Flag_of_Syria_1980-Present.png</t>
+  </si>
+  <si>
+    <t>Flag_of_Syria_1980-Present.png,Flag_of_Syria_1958-1961_1980-2012.png</t>
+  </si>
+  <si>
+    <t>Flag_of_Syria_1980-Present.png,Flag_of_Syria_1958-1961_1980-2012.png,Flag_of_Syria_2012-Present.png,Flag_of_Syria_2018-Present.png</t>
+  </si>
+  <si>
+    <t>Antakya, Ottoman Empire</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Lebanon, Ottoman Empire</t>
+  </si>
+  <si>
+    <t>Egypt</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1545,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1542,12 +1608,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1589,7 +1679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1602,10 +1692,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1906,31 +2015,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="16"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="18" width="8.83203125" style="9"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1948,7 +2062,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1957,1354 +2071,1573 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="D3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="S3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C4" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C5" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C6" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="D7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="S7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C8" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C10" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C11" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q11" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C13" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C14" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q14" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="S14" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="C23" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="C27" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="S28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="C30" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="L2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>176</v>
+      <c r="L30" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S30" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="L3" t="s">
-        <v>155</v>
+      <c r="L32" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="S32" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="L4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>177</v>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S33" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L5" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="O5" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" t="s">
-        <v>181</v>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="S34" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="L6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="O6" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" t="s">
-        <v>181</v>
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="S35" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" t="s">
-        <v>156</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O8" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L9" t="s">
-        <v>156</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="P9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="8" t="s">
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S36" t="s">
         <v>230</v>
-      </c>
-      <c r="L10" t="s">
-        <v>156</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="L11" t="s">
-        <v>156</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="L12" t="s">
-        <v>156</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="O12" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="P13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" t="s">
-        <v>156</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="L16" t="s">
-        <v>156</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="L18" t="s">
-        <v>156</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" t="s">
-        <v>156</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="L21" t="s">
-        <v>156</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="L23" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="L24" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="L25" t="s">
-        <v>156</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" t="s">
-        <v>251</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="L26" t="s">
-        <v>158</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" t="s">
-        <v>156</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" t="s">
-        <v>252</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="L29" t="s">
-        <v>156</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" t="s">
-        <v>254</v>
-      </c>
-      <c r="G30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L30" t="s">
-        <v>157</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" t="s">
-        <v>255</v>
-      </c>
-      <c r="G31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" t="s">
-        <v>126</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" t="s">
-        <v>157</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E32" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" t="s">
-        <v>256</v>
-      </c>
-      <c r="G32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="L32" t="s">
-        <v>157</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" t="s">
-        <v>257</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" t="s">
-        <v>135</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L33" t="s">
-        <v>157</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" t="s">
-        <v>258</v>
-      </c>
-      <c r="G34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" t="s">
-        <v>141</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I35" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" t="s">
-        <v>144</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="L35" t="s">
-        <v>158</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" t="s">
-        <v>260</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" tooltip="Theology"/>
-    <hyperlink ref="N6" r:id="rId2" tooltip="Theology"/>
-    <hyperlink ref="N10" r:id="rId3" tooltip="American University of Beirut"/>
-    <hyperlink ref="N11" r:id="rId4" tooltip="University of Damascus"/>
-    <hyperlink ref="N12" r:id="rId5" tooltip="Theology"/>
-    <hyperlink ref="P14" r:id="rId6" tooltip="Shukri al-Quwatli"/>
-    <hyperlink ref="P15" r:id="rId7" tooltip="United Arab Republic" display="in 1958, Quwatli merged Syria with Egypt to form the United Arab Republic and stepped down for Nasser to serve as president"/>
-    <hyperlink ref="P16" r:id="rId8" tooltip="United Arab Republic" display="in 1958, Quwatli merged Syria with Egypt to form the United Arab Republic and stepped down for Nasser to serve as president"/>
+    <hyperlink ref="O5" r:id="rId1" tooltip="Theology"/>
+    <hyperlink ref="O6" r:id="rId2" tooltip="Theology"/>
+    <hyperlink ref="O10" r:id="rId3" tooltip="American University of Beirut"/>
+    <hyperlink ref="O11" r:id="rId4" tooltip="University of Damascus"/>
+    <hyperlink ref="O12" r:id="rId5" tooltip="Theology"/>
+    <hyperlink ref="Q14" r:id="rId6" tooltip="Shukri al-Quwatli"/>
+    <hyperlink ref="Q15" r:id="rId7" tooltip="United Arab Republic" display="in 1958, Quwatli merged Syria with Egypt to form the United Arab Republic and stepped down for Nasser to serve as president"/>
+    <hyperlink ref="Q16" r:id="rId8" tooltip="United Arab Republic" display="in 1958, Quwatli merged Syria with Egypt to form the United Arab Republic and stepped down for Nasser to serve as president"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
